--- a/biology/Biologie cellulaire et moléculaire/SLAM_(protéine)/SLAM_(protéine).xlsx
+++ b/biology/Biologie cellulaire et moléculaire/SLAM_(protéine)/SLAM_(protéine).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SLAM_(prot%C3%A9ine)</t>
+          <t>SLAM_(protéine)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,19 +490,21 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Les SLAM (pour « Signaling lymphocytic activation molecule ») constituent une famille de protéines.
 Les différents membres en sont :
 SLAMF1 (CD150)
-SLAMF2 (CD48)[1]
+SLAMF2 (CD48)
 SLAMF3 (CD229, LY9)
 SLAMF4 (CD244)
 SLAMF5 (CD84)
-SLAMF6 (CD352)[2]
-SLAMF7 (CD319)[3]
-SLAMF8 (CD353)[4]
-SLAMF9[5]</t>
+SLAMF6 (CD352)
+SLAMF7 (CD319)
+SLAMF8 (CD353)
+SLAMF9</t>
         </is>
       </c>
     </row>
